--- a/com.Ecommerce/src/main/resources/TestData/M4TestData.xlsx
+++ b/com.Ecommerce/src/main/resources/TestData/M4TestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAN SINGH\git\M4Project\com.Ecommerce\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918B5B7D-C3D5-4CF8-8D95-CDE9FC746623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0B0FFF-E126-4720-98BD-3EE582C84E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F431BFA9-F469-403D-A5F0-AEF574E8EF7E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F431BFA9-F469-403D-A5F0-AEF574E8EF7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Invalid" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Invalid" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="186">
   <si>
     <t>Gender</t>
   </si>
@@ -654,17 +655,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,7 +998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7246F1-337F-4A5C-A141-66A7ACDD5552}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -1730,14 +1727,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C4FF50-B530-44BD-A290-61750B78C099}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1762,6 +1759,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185FA67E-AEC9-4114-9E3B-E18AEC859C47}">
+  <dimension ref="E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1012DA7-EF5D-49FD-A667-213011CB5468}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1772,170 +1792,170 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>184</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>185</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>16</v>
       </c>
     </row>
